--- a/Research Project/Sandbox/Calculation check.xlsx
+++ b/Research Project/Sandbox/Calculation check.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/MatthewCampos/Documents/CMEECourseWork/Research Project/Sandbox/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C63718C4-C5E3-5C43-A1BD-49BF88396F10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F97E23EB-1FB3-DD4E-BEA3-1C6D7DCE0885}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{6832128D-60B0-BC45-A5C4-9A664CDC8D43}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
   <si>
     <t>P</t>
   </si>
@@ -62,9 +62,6 @@
     <t>gamma2</t>
   </si>
   <si>
-    <t>x_j</t>
-  </si>
-  <si>
     <t>X11</t>
   </si>
   <si>
@@ -117,13 +114,40 @@
   </si>
   <si>
     <t>P32</t>
+  </si>
+  <si>
+    <t>mu11</t>
+  </si>
+  <si>
+    <t>mu12</t>
+  </si>
+  <si>
+    <t>mu21</t>
+  </si>
+  <si>
+    <t>mu22</t>
+  </si>
+  <si>
+    <t>mu31</t>
+  </si>
+  <si>
+    <t>mu32</t>
+  </si>
+  <si>
+    <t>y1</t>
+  </si>
+  <si>
+    <t>y2</t>
+  </si>
+  <si>
+    <t>y3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -133,6 +157,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -158,11 +189,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -479,8 +511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17A808A6-E21C-424F-9F6C-A993A3E93C8E}">
   <dimension ref="A1:M45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -496,22 +528,22 @@
         <v>3</v>
       </c>
       <c r="H1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" t="s">
         <v>16</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>17</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>18</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>19</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>20</v>
-      </c>
-      <c r="M1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -525,22 +557,22 @@
         <v>1</v>
       </c>
       <c r="H2">
-        <v>0.48128979999999999</v>
+        <v>0.89024689999999995</v>
       </c>
       <c r="I2">
-        <v>0.99426977999999999</v>
+        <v>4.675116E-2</v>
       </c>
       <c r="J2">
-        <v>0.80094821000000005</v>
+        <v>0.40542909999999999</v>
       </c>
       <c r="K2">
-        <v>0.48128979999999999</v>
+        <v>0.2036627</v>
       </c>
       <c r="L2">
-        <v>0.99426977999999999</v>
+        <v>0.35237760000000001</v>
       </c>
       <c r="M2">
-        <v>0.30776386999999999</v>
+        <v>0.54388959999999997</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -554,22 +586,22 @@
         <v>2</v>
       </c>
       <c r="H3">
-        <v>0.48128979999999999</v>
+        <v>0.69891380000000003</v>
       </c>
       <c r="I3">
-        <v>0.99426979999999998</v>
+        <v>5.1617780000000002E-2</v>
       </c>
       <c r="J3">
-        <v>0.8009482</v>
+        <v>0.87952969999999997</v>
       </c>
       <c r="K3">
-        <v>0.48128979999999999</v>
+        <v>0.50977090000000003</v>
       </c>
       <c r="L3">
-        <v>0.99426979999999998</v>
+        <v>0.38543739999999999</v>
       </c>
       <c r="M3">
-        <v>0.30776389999999998</v>
+        <v>0.17221339999999999</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -608,22 +640,22 @@
         <v>3</v>
       </c>
       <c r="H8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" t="s">
         <v>22</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>23</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>24</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>25</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>26</v>
-      </c>
-      <c r="M8" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -631,120 +663,199 @@
         <v>1</v>
       </c>
       <c r="H9">
-        <v>4.2059529999999998E-2</v>
+        <v>6.250762E-2</v>
       </c>
       <c r="I9">
-        <v>0.78529167</v>
+        <v>0.59101210000000004</v>
       </c>
       <c r="J9">
-        <v>0.89982496999999995</v>
+        <v>0.1053977</v>
       </c>
       <c r="K9">
-        <v>4.2059529999999998E-2</v>
+        <v>0.73300279999999995</v>
       </c>
       <c r="L9">
-        <v>0.7531101</v>
+        <v>0.1954246</v>
       </c>
       <c r="M9">
-        <v>0.26501781000000002</v>
+        <v>0.31185610000000002</v>
       </c>
     </row>
     <row r="10" spans="1:13">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" t="s">
+        <v>32</v>
+      </c>
       <c r="G10">
         <v>2</v>
       </c>
       <c r="H10">
-        <v>4.2059529999999998E-2</v>
+        <v>0.68305970999999999</v>
       </c>
       <c r="I10">
-        <v>0.78529170000000004</v>
+        <v>0.59101210000000004</v>
       </c>
       <c r="J10">
-        <v>0.89982499999999999</v>
+        <v>0.89316329999999999</v>
       </c>
       <c r="K10">
-        <v>4.2059529999999998E-2</v>
+        <v>0.96773679999999995</v>
       </c>
       <c r="L10">
-        <v>0.78529170000000004</v>
+        <v>0.46692139999999999</v>
       </c>
       <c r="M10">
-        <v>0.26501780000000003</v>
+        <v>0.68707430000000003</v>
       </c>
     </row>
     <row r="11" spans="1:13">
+      <c r="A11">
+        <f>H25/H32</f>
+        <v>2.2007303072858106</v>
+      </c>
+      <c r="B11">
+        <f>K25/K32</f>
+        <v>4.9120419400823252</v>
+      </c>
+      <c r="C11">
+        <f>I25/I32</f>
+        <v>1.1809536199201207</v>
+      </c>
+      <c r="D11">
+        <f>L25/L32</f>
+        <v>9.4409596109300553E-2</v>
+      </c>
+      <c r="E11">
+        <f>J25/J32</f>
+        <v>0.86471627976624088</v>
+      </c>
+      <c r="F11">
+        <f>M25/M32</f>
+        <v>0.90072412299872107</v>
+      </c>
       <c r="G11">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:13">
+      <c r="A12">
+        <f>H26/H33</f>
+        <v>1.4713492883592982</v>
+      </c>
+      <c r="B12">
+        <f>K26/K33</f>
+        <v>0.44695619395767355</v>
+      </c>
+      <c r="C12">
+        <f>I26/I33</f>
+        <v>1.3404670567557295</v>
+      </c>
+      <c r="D12">
+        <f>L26/L33</f>
+        <v>2.120117770548084</v>
+      </c>
+      <c r="E12">
+        <f>J26/J33</f>
+        <v>3.7965912762185625</v>
+      </c>
+      <c r="F12">
+        <f>M26/M33</f>
+        <v>2.2111776426631655</v>
+      </c>
       <c r="G12">
         <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:13">
+      <c r="A13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" t="s">
+        <v>35</v>
+      </c>
       <c r="G13">
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:13">
+      <c r="A14">
+        <f>(H18*A11) + (K18*B11)</f>
+        <v>3.2466185297623293</v>
+      </c>
+      <c r="B14">
+        <f>(I18*C11)+(D11*L18)</f>
+        <v>0.60983148948851895</v>
+      </c>
+      <c r="C14">
+        <f>(J18*E11)+(F11*M18)</f>
+        <v>0.7969374372116188</v>
+      </c>
       <c r="H14" t="s">
+        <v>9</v>
+      </c>
+      <c r="I14" t="s">
         <v>10</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>11</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>12</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>13</v>
       </c>
-      <c r="L14" t="s">
+      <c r="M14" t="s">
         <v>14</v>
       </c>
-      <c r="M14" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="15" spans="1:13">
+      <c r="A15">
+        <f>(H19*A12) + (K19*B12)</f>
+        <v>0.71344125251911827</v>
+      </c>
+      <c r="B15">
+        <f>(I19*C12)+(D12*L19)</f>
+        <v>1.0105194514132776</v>
+      </c>
+      <c r="C15">
+        <f>(J19*E12)+(F12*M19)</f>
+        <v>1.960952243627359</v>
+      </c>
       <c r="H15">
-        <v>0.85567669999999996</v>
+        <v>0.1</v>
       </c>
       <c r="I15">
-        <v>0.4157227</v>
+        <v>0.1</v>
       </c>
       <c r="J15">
-        <v>0.46269884</v>
+        <v>0.1</v>
       </c>
       <c r="K15">
-        <v>0.46544940000000001</v>
+        <v>0.1</v>
       </c>
       <c r="L15">
-        <v>0.92527289999999995</v>
+        <v>0.1</v>
       </c>
       <c r="M15">
-        <v>0.86972070000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="H16">
-        <v>0.5805285</v>
-      </c>
-      <c r="I16">
-        <v>0.93257279999999998</v>
-      </c>
-      <c r="J16">
-        <v>9.9346329999999997E-2</v>
-      </c>
-      <c r="K16">
-        <v>0.98408390000000001</v>
-      </c>
-      <c r="L16">
-        <v>0.43539879999999997</v>
-      </c>
-      <c r="M16">
-        <v>0.30035420000000002</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="17" spans="7:13">
@@ -776,27 +887,27 @@
       </c>
       <c r="H18">
         <f>1-((J15+K15)^I9)/(((J15+K15)^I9)+(I2^I9))</f>
-        <v>0.51350709004795791</v>
+        <v>0.29754345473300858</v>
       </c>
       <c r="I18">
         <f>((H15+I15)^H9)/(((H15+I15)^H9)+(H2^H9))</f>
-        <v>0.51021277702520385</v>
+        <v>0.47668311952212955</v>
       </c>
       <c r="J18">
         <f>((H15+I15)^J9)/(((H15+I15)^J9)+(J2^J9))</f>
-        <v>0.60247505603243789</v>
+        <v>0.48138934320840571</v>
       </c>
       <c r="K18">
         <f>1-((J15+K15)^L9)/(((J15+K15)^L9)+(L2^L9))</f>
-        <v>0.51295381705057808</v>
+        <v>0.52764322104982586</v>
       </c>
       <c r="L18">
         <f>((H15+I15)^K9)/(((H15+I15)^K9)+(K2^K9))</f>
-        <v>0.51021277702520385</v>
+        <v>0.4966744469466613</v>
       </c>
       <c r="M18">
         <f>((H15+I15)^M9)/(((H15+I15)^M9)+(M2^M9))</f>
-        <v>0.59289315373078766</v>
+        <v>0.42262911086025462</v>
       </c>
     </row>
     <row r="19" spans="7:13">
@@ -804,116 +915,44 @@
         <v>2</v>
       </c>
       <c r="H19">
-        <f>1-((J16+K16)^I10)/(((J16+K16)^I10)+(I3^I10))</f>
-        <v>0.48314640465305769</v>
+        <f>1-((J15+K15)^I10)/(((J15+K15)^I10)+(I3^I10))</f>
+        <v>0.30991920807098949</v>
       </c>
       <c r="I19">
-        <f>((H16+I16)^H10)/(((H16+I16)^H10)+(H3^H10))</f>
-        <v>0.51204191243156871</v>
+        <f>((H15+I15)^H10)/(((H15+I15)^H10)+(H3^H10))</f>
+        <v>0.29845807889100179</v>
       </c>
       <c r="J19">
-        <f>((H16+I16)^J10)/(((H16+I16)^J10)+(J3^J10))</f>
-        <v>0.63931609287241209</v>
+        <f>((H15+I15)^J10)/(((H15+I15)^J10)+(J3^J10))</f>
+        <v>0.21034662160297704</v>
       </c>
       <c r="K19">
-        <f>1-((J16+K16)^L10)/(((J16+K16)^L10)+(L3^L10))</f>
-        <v>0.48314640465305769</v>
+        <f>1-((J15+K15)^L10)/(((J15+K15)^L10)+(L3^L10))</f>
+        <v>0.57598898897767636</v>
       </c>
       <c r="L19">
-        <f>((H16+I16)^K10)/(((H16+I16)^K10)+(K3^K10))</f>
-        <v>0.51204191243156871</v>
+        <f>((H15+I15)^K10)/(((H15+I15)^K10)+(K3^K10))</f>
+        <v>0.28793033920916433</v>
       </c>
       <c r="M19">
-        <f>((H16+I16)^M10)/(((H16+I16)^M10)+(M3^M10))</f>
-        <v>0.60397681107640033</v>
+        <f>((H15+I15)^M10)/(((H15+I15)^M10)+(M3^M10))</f>
+        <v>0.52567105990973217</v>
       </c>
     </row>
     <row r="20" spans="7:13">
       <c r="G20">
         <v>3</v>
       </c>
-      <c r="H20" t="e">
-        <f t="shared" ref="H19:H22" si="0">($H$15^H11)/(($H$15^H11)+(H4^H11))</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="I20" t="e">
-        <f t="shared" ref="I19:I22" si="1">($I$15^I11)/(($I$15^I11)+(I4^I11))</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J20" t="e">
-        <f t="shared" ref="J19:J22" si="2">($J$15^J11)/(($J$15^J11)+(J4^J11))</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="K20" t="e">
-        <f t="shared" ref="K20" si="3">($H$15^K11)/(($H$15^K11)+(K4^K11))</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L20" t="e">
-        <f t="shared" ref="L19:L22" si="4">($I$15^L11)/(($I$15^L11)+(L4^L11))</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="M20" t="e">
-        <f t="shared" ref="M19:M22" si="5">($J$15^M11)/(($J$15^M11)+(M4^M11))</f>
-        <v>#NUM!</v>
-      </c>
     </row>
     <row r="21" spans="7:13">
       <c r="G21">
         <v>4</v>
       </c>
-      <c r="H21" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="I21" t="e">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="J21" t="e">
-        <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="K21" t="e">
-        <f t="shared" ref="K21" si="6">($H$15^K12)/(($H$15^K12)+(K5^K12))</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L21" t="e">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="M21" t="e">
-        <f t="shared" si="5"/>
-        <v>#NUM!</v>
-      </c>
     </row>
     <row r="22" spans="7:13">
       <c r="G22">
         <v>5</v>
       </c>
-      <c r="H22" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="I22" t="e">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="J22" t="e">
-        <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="K22" t="e">
-        <f t="shared" ref="K22" si="7">($H$15^K13)/(($H$15^K13)+(K6^K13))</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L22" t="e">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="M22" t="e">
-        <f t="shared" si="5"/>
-        <v>#NUM!</v>
-      </c>
     </row>
     <row r="24" spans="7:13">
       <c r="G24" t="s">
@@ -943,22 +982,22 @@
         <v>1</v>
       </c>
       <c r="H25">
-        <v>0.32792070000000001</v>
+        <v>0.99057490000000004</v>
       </c>
       <c r="I25">
-        <v>0.72939069999999995</v>
+        <v>0.80520630000000004</v>
       </c>
       <c r="J25">
-        <v>0.81238949999999999</v>
+        <v>0.85465789999999997</v>
       </c>
       <c r="K25">
-        <v>0.93913840000000004</v>
+        <v>0.98652910000000005</v>
       </c>
       <c r="L25">
-        <v>0.45333420000000002</v>
+        <v>7.3192380000000001E-2</v>
       </c>
       <c r="M25">
-        <v>0.81238949999999999</v>
+        <v>0.89024689999999995</v>
       </c>
     </row>
     <row r="26" spans="7:13">
@@ -966,22 +1005,22 @@
         <v>2</v>
       </c>
       <c r="H26">
-        <v>0.32792070000000001</v>
+        <v>0.65584600000000004</v>
       </c>
       <c r="I26">
-        <v>0.72939069999999995</v>
+        <v>0.91396690000000003</v>
       </c>
       <c r="J26">
-        <v>0.32792070000000001</v>
+        <v>0.73329489999999997</v>
       </c>
       <c r="K26">
-        <v>0.93913840000000004</v>
+        <v>0.3279706</v>
       </c>
       <c r="L26">
-        <v>0.45333420000000002</v>
+        <v>0.91396686999999999</v>
       </c>
       <c r="M26">
-        <v>0.81238949999999999</v>
+        <v>0.86226420000000004</v>
       </c>
     </row>
     <row r="27" spans="7:13">
@@ -1027,22 +1066,22 @@
         <v>1</v>
       </c>
       <c r="H32">
-        <v>0.95450360000000001</v>
+        <v>0.45011190000000001</v>
       </c>
       <c r="I32">
-        <v>0.30776389999999998</v>
+        <v>0.68182719999999997</v>
       </c>
       <c r="J32">
-        <v>0.45245839999999998</v>
+        <v>0.98836800000000002</v>
       </c>
       <c r="K32">
-        <v>0.95450360000000001</v>
-      </c>
-      <c r="L32">
-        <v>0.30776389999999998</v>
-      </c>
-      <c r="M32">
-        <v>0.82203009999999999</v>
+        <v>0.20083889999999999</v>
+      </c>
+      <c r="L32" s="2">
+        <v>0.77526419999999996</v>
+      </c>
+      <c r="M32" s="2">
+        <v>0.98836800000000002</v>
       </c>
     </row>
     <row r="33" spans="7:13">
@@ -1050,22 +1089,22 @@
         <v>2</v>
       </c>
       <c r="H33">
-        <v>0.95450360000000001</v>
+        <v>0.44574459999999999</v>
       </c>
       <c r="I33">
-        <v>0.30776389999999998</v>
+        <v>0.68182719999999997</v>
       </c>
       <c r="J33">
-        <v>0.45245839999999998</v>
+        <v>0.1931456</v>
       </c>
       <c r="K33">
-        <v>0.95450360000000001</v>
+        <v>0.73378690000000002</v>
       </c>
       <c r="L33">
-        <v>0.30776389999999998</v>
+        <v>0.43109249999999999</v>
       </c>
       <c r="M33">
-        <v>0.82203009999999999</v>
+        <v>0.389957</v>
       </c>
     </row>
     <row r="34" spans="7:13">
@@ -1083,29 +1122,6 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="7:13">
-      <c r="G38" t="s">
-        <v>9</v>
-      </c>
-      <c r="H38">
-        <v>0</v>
-      </c>
-      <c r="I38">
-        <v>0</v>
-      </c>
-      <c r="J38">
-        <v>0</v>
-      </c>
-      <c r="K38">
-        <v>0</v>
-      </c>
-      <c r="L38">
-        <v>0</v>
-      </c>
-      <c r="M38">
-        <v>0</v>
-      </c>
-    </row>
     <row r="40" spans="7:13">
       <c r="G40" t="s">
         <v>4</v>
@@ -1135,27 +1151,27 @@
       </c>
       <c r="H41">
         <f>(H25*H18) - (H32*H15)</f>
-        <v>-0.64835688616263054</v>
+        <v>0.24972788791780451</v>
       </c>
       <c r="I41">
         <f>(I25*I18) - (I32*J15)</f>
-        <v>0.22974245505948132</v>
+        <v>0.31564553094287173</v>
       </c>
       <c r="J41">
         <f>(J25*J18) - (J32*L15)</f>
-        <v>7.0796913635304271E-2</v>
+        <v>0.31258640514887526</v>
       </c>
       <c r="K41">
         <f>(K25*K18) - (K32*I15)</f>
-        <v>8.4925813267052619E-2</v>
+        <v>0.50045150198338584</v>
       </c>
       <c r="L41">
         <f>(L25*L18) - (L32*K15)</f>
-        <v>8.8048378505839187E-2</v>
+        <v>-4.1173635142790127E-2</v>
       </c>
       <c r="M41">
         <f>(M25*M18) - (M32*M15)</f>
-        <v>-0.23327642128029225</v>
+        <v>0.277407455793098</v>
       </c>
     </row>
     <row r="42" spans="7:13">
@@ -1163,28 +1179,28 @@
         <v>2</v>
       </c>
       <c r="H42">
-        <f>(H26*H19) - (H33*H16)</f>
-        <v>-0.39568283593628611</v>
+        <f>(H26*H20) - (H33*H16)</f>
+        <v>0</v>
       </c>
       <c r="I42">
         <f>(I26*I19) - (I33*J16)</f>
-        <v>0.34290339496631361</v>
+        <v>0.27278080514396436</v>
       </c>
       <c r="J42">
         <f>(J26*J19) - (J33*L16)</f>
-        <v>1.2645136286066394E-2</v>
+        <v>0.15424610485369289</v>
       </c>
       <c r="K42">
         <f>(K26*K19) - (K33*I16)</f>
-        <v>-0.43640275343045482</v>
+        <v>0.18890745430840192</v>
       </c>
       <c r="L42">
         <f>(L26*L19) - (L33*K16)</f>
-        <v>-7.0739388252574698E-2</v>
+        <v>0.26315879090503819</v>
       </c>
       <c r="M42">
         <f>(M26*M19) - (M33*M16)</f>
-        <v>0.24376422650053134</v>
+        <v>0.45326733593621732</v>
       </c>
     </row>
     <row r="43" spans="7:13">
@@ -1192,86 +1208,86 @@
         <v>3</v>
       </c>
       <c r="H43" t="e">
-        <f>(H27*H20) - (H34*$H$38)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="I43" t="e">
+        <f>(H27*#REF!) - (H34*$H$38)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I43">
         <f>(I27*I20) - (I34*$I$38)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J43" t="e">
+        <v>0</v>
+      </c>
+      <c r="J43">
         <f>(J27*J20) - (J34*$J$38)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="K43" t="e">
+        <v>0</v>
+      </c>
+      <c r="K43">
         <f>(K27*K20) - (K34*$K$38)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L43" t="e">
+        <v>0</v>
+      </c>
+      <c r="L43">
         <f>(L27*L20) - (L34*$L$38)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="M43" t="e">
+        <v>0</v>
+      </c>
+      <c r="M43">
         <f>(M27*M20) - (M34*$M$38)</f>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="7:13">
       <c r="G44">
         <v>4</v>
       </c>
-      <c r="H44" t="e">
+      <c r="H44">
         <f>(H28*H21) - (H35*$H$38)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="I44" t="e">
+        <v>0</v>
+      </c>
+      <c r="I44">
         <f>(I28*I21) - (I35*$I$38)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J44" t="e">
+        <v>0</v>
+      </c>
+      <c r="J44">
         <f>(J28*J21) - (J35*$J$38)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="K44" t="e">
+        <v>0</v>
+      </c>
+      <c r="K44">
         <f>(K28*K21) - (K35*$K$38)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L44" t="e">
+        <v>0</v>
+      </c>
+      <c r="L44">
         <f>(L28*L21) - (L35*$L$38)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="M44" t="e">
+        <v>0</v>
+      </c>
+      <c r="M44">
         <f>(M28*M21) - (M35*$M$38)</f>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="7:13">
       <c r="G45">
         <v>5</v>
       </c>
-      <c r="H45" t="e">
+      <c r="H45">
         <f>(H29*H22) - (H36*$H$38)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="I45" t="e">
+        <v>0</v>
+      </c>
+      <c r="I45">
         <f>(I29*I22) - (I36*$I$38)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J45" t="e">
+        <v>0</v>
+      </c>
+      <c r="J45">
         <f>(J29*J22) - (J36*$J$38)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="K45" t="e">
+        <v>0</v>
+      </c>
+      <c r="K45">
         <f>(K29*K22) - (K36*$K$38)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L45" t="e">
+        <v>0</v>
+      </c>
+      <c r="L45">
         <f>(L29*L22) - (L36*$L$38)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="M45" t="e">
+        <v>0</v>
+      </c>
+      <c r="M45">
         <f>(M29*M22) - (M36*$M$38)</f>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
